--- a/P2/f1_and_time.xlsx
+++ b/P2/f1_and_time.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZezeH\Desktop\MIEIC\3 Ano\2 Semestre\IART\Projects\IART\P2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A17BF15B-DB32-458B-A411-A3CD2622AFCC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67AA3F61-C053-44CF-B69E-70337D556C77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{56C4DFA0-95AC-4560-8285-892028ACCCA7}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{56C4DFA0-95AC-4560-8285-892028ACCCA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +104,12 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -342,7 +348,25 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -352,30 +376,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -383,6 +383,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -706,10 +712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F1CEB61-2032-498B-89EC-3B8F20997A4E}">
-  <dimension ref="A4:L9"/>
+  <dimension ref="B4:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -728,65 +734,65 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="11" t="s">
+      <c r="D4" s="18"/>
+      <c r="E4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="11" t="s">
+      <c r="F4" s="18"/>
+      <c r="G4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="11" t="s">
+      <c r="H4" s="18"/>
+      <c r="I4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="13" t="s">
+      <c r="J4" s="18"/>
+      <c r="K4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="12"/>
+      <c r="L4" s="18"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="23"/>
-      <c r="C5" s="17" t="s">
+      <c r="B5" s="21"/>
+      <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="J5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="18" t="s">
+      <c r="L5" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1">
@@ -814,14 +820,14 @@
         <v>0.18</v>
       </c>
       <c r="K6" s="3">
-        <v>48.2</v>
+        <v>63.7</v>
       </c>
       <c r="L6" s="2">
-        <v>0.02</v>
+        <v>2.871</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="4">
@@ -849,17 +855,17 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="K7" s="6">
-        <v>65</v>
+        <v>47.9</v>
       </c>
       <c r="L7" s="5">
-        <v>0.03</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="22">
         <v>43.3</v>
       </c>
       <c r="D8" s="5">
@@ -884,14 +890,14 @@
         <v>0.42</v>
       </c>
       <c r="K8" s="6">
-        <v>46.8</v>
+        <v>48.7</v>
       </c>
       <c r="L8" s="5">
-        <v>0.02</v>
+        <v>4.1660000000000004</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="7">
@@ -912,23 +918,27 @@
       <c r="H9" s="8">
         <v>0.08</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="16">
         <v>86</v>
       </c>
       <c r="J9" s="8">
         <v>0.36699999999999999</v>
       </c>
-      <c r="K9" s="10"/>
-      <c r="L9" s="8"/>
+      <c r="K9" s="23">
+        <v>40</v>
+      </c>
+      <c r="L9" s="8">
+        <v>26.97</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
-    <mergeCell ref="B4:B5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
